--- a/Final_Project_문서/파이널프로젝트_요구사항분석서.xlsx
+++ b/Final_Project_문서/파이널프로젝트_요구사항분석서.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="9.104.131.47063"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="590" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,8 +16,15 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors/>
+  <commentList/>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>번호</t>
   </si>
@@ -32,6 +39,42 @@
   </si>
   <si>
     <t>비고</t>
+  </si>
+  <si>
+    <t>분류</t>
+  </si>
+  <si>
+    <t>서비스페이지</t>
+  </si>
+  <si>
+    <t>메인페이지</t>
+  </si>
+  <si>
+    <t>사용자</t>
+  </si>
+  <si>
+    <t>로그인</t>
+  </si>
+  <si>
+    <t>회원가입</t>
+  </si>
+  <si>
+    <t>회원탈퇴</t>
+  </si>
+  <si>
+    <t>객실예약</t>
+  </si>
+  <si>
+    <t>객실예약취소</t>
+  </si>
+  <si>
+    <t>아이디찾기</t>
+  </si>
+  <si>
+    <t>비밀번호찾기</t>
+  </si>
+  <si>
+    <t>서비스</t>
   </si>
 </sst>
 </file>
@@ -354,7 +397,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -369,7 +411,6 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -378,7 +419,6 @@
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -387,7 +427,6 @@
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -396,7 +435,6 @@
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -411,7 +449,6 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -426,7 +463,6 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -441,7 +477,6 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -450,7 +485,6 @@
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -461,7 +495,6 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -935,35 +968,75 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
+  <cols>
+    <col min="2" max="2" width="13.25500011" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" width="9.13000011" customWidth="1" outlineLevel="0"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="B3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="B4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="B5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Final_Project_문서/파이널프로젝트_요구사항분석서.xlsx
+++ b/Final_Project_문서/파이널프로젝트_요구사항분석서.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="9.104.131.47063"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="590" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="580" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>번호</t>
   </si>
@@ -75,6 +75,18 @@
   </si>
   <si>
     <t>서비스</t>
+  </si>
+  <si>
+    <t>객실예약확인</t>
+  </si>
+  <si>
+    <t>객실예약수정</t>
+  </si>
+  <si>
+    <t>문의내역확인</t>
+  </si>
+  <si>
+    <t>마일리지, 쿠폰</t>
   </si>
 </sst>
 </file>
@@ -968,10 +980,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -1030,6 +1042,36 @@
       </c>
       <c r="I5" s="0" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="B6" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="B7" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="B8" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="B9" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="B10" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="B11" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
